--- a/target/classes/files/Products.xlsx
+++ b/target/classes/files/Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="28440" windowHeight="16980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="247">
   <si>
     <t>Loại hàng</t>
   </si>
@@ -1159,18 +1159,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:XFD157"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1272,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1320,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1371,7 @@
       </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="14">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1474,7 +1475,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="14">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1526,7 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="14">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2404,9 +2405,6 @@
       <c r="J24" t="s">
         <v>21</v>
       </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
       <c r="L24" s="3">
         <v>1</v>
       </c>
@@ -2416,9 +2414,6 @@
       <c r="N24" t="s">
         <v>21</v>
       </c>
-      <c r="O24" t="s">
-        <v>21</v>
-      </c>
       <c r="P24">
         <v>1</v>
       </c>
@@ -2426,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2479,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2532,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2585,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="14">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2797,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="14">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2850,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="14">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2903,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2956,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3009,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3062,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3115,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3221,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="14">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3274,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="14">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -3327,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="14">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3380,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="14">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -3433,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="14">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -3486,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="14">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3539,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="14">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3592,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="14">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3645,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="14">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3698,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="14">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3751,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="14">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3804,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="14">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3857,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="14">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3910,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="14">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3963,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="14">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4016,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="14">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4069,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="14">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4122,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="14">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -4175,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="14">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4228,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="14">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4281,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="14">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4334,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="14">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4387,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="14">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="14">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4493,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="14">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4546,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="14">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4599,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="14">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4652,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="14">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4705,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="14">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4758,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="14">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4811,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="14">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4864,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="14">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4915,7 +4910,7 @@
       </c>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="14">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4963,7 +4958,7 @@
       </c>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="14">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5014,7 +5009,7 @@
       </c>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="14">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -5065,7 +5060,7 @@
       </c>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="14">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -5116,7 +5111,7 @@
       </c>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="14">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -5167,7 +5162,7 @@
       </c>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="14">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -5218,7 +5213,7 @@
       </c>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="14">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -5269,7 +5264,7 @@
       </c>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="14">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -5320,7 +5315,7 @@
       </c>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="14">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -5371,7 +5366,7 @@
       </c>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="14">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5422,7 +5417,7 @@
       </c>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="14">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="14">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5528,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="14">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5581,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="14">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5634,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="14">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5687,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="14">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5740,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="14">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5793,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="14">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5846,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="14">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5899,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="14">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5952,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="14">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -6005,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="14">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="14">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -6111,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="14">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -6164,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="14">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -6217,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="14">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -6270,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="14">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -6323,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="14">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -6376,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="14">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6429,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="14">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6482,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="14">
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6535,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="14">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6588,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="14">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -6641,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="14">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6694,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="14">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6747,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="14">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6800,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="14">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6853,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="14">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6906,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="14">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6959,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="14">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -7012,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="14">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -7065,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="14">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -7118,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="14">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -7171,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="14">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -7224,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="14">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7277,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="14">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7330,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="14">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7383,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="14">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7436,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="14">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7489,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="14">
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7542,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="14">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7595,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="14">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7648,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="14">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -7701,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="14">
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7754,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="14">
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7807,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="14">
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7860,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="14">
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7913,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="14">
+    <row r="129" spans="1:17">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7966,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="14">
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -8019,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="14">
+    <row r="131" spans="1:17">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -8072,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="14">
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -8125,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="14">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -8178,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="14">
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8231,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="14">
+    <row r="135" spans="1:17">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8284,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="14">
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -8337,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="14">
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -8390,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="14">
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -8443,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="14">
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8496,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="14">
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -8549,10 +8544,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="14"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
